--- a/Daten/zf_geburtenrate/variable_lebendgeburten_pro_jahr/rohdaten/su-d-01.04.01.01.08.xlsx
+++ b/Daten/zf_geburtenrate/variable_lebendgeburten_pro_jahr/rohdaten/su-d-01.04.01.01.08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolarohner/Documents/GitHub/omc-WER/Daten/variable_lebendgeburten_pro_jahr/rohdaten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/578e02158c832d3f/Dokumente/GitHub/omc-WER/Daten/zf_geburtenrate/variable_lebendgeburten_pro_jahr/rohdaten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E41588-D3E0-254F-9D93-A3C15A87D407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{85E41588-D3E0-254F-9D93-A3C15A87D407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B411C32-E747-4984-9CCE-109FBE1148D3}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="560" windowWidth="25200" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>su-d-01.04.01.01.08</t>
   </si>
@@ -635,21 +635,21 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AZ6" sqref="AZ6"/>
+      <selection pane="bottomRight" activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="52" width="8.5" style="1" customWidth="1"/>
     <col min="53" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -657,12 +657,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>1970</v>
@@ -757,8 +757,8 @@
       <c r="AF3" s="9">
         <v>2000</v>
       </c>
-      <c r="AG3" s="10" t="s">
-        <v>34</v>
+      <c r="AG3" s="10">
+        <v>2001</v>
       </c>
       <c r="AH3" s="9">
         <v>2002</v>
@@ -784,8 +784,8 @@
       <c r="AO3" s="11">
         <v>2009</v>
       </c>
-      <c r="AP3" s="12" t="s">
-        <v>36</v>
+      <c r="AP3" s="12">
+        <v>2010</v>
       </c>
       <c r="AQ3" s="11">
         <v>2011</v>
@@ -818,7 +818,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -976,7 +976,7 @@
         <v>85914</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>9943</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>6980</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>8455</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -5084,36 +5084,36 @@
         <v>699</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
       <c r="P31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId1"/>
@@ -5136,14 +5136,14 @@
       <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="52" width="8.5" style="1" customWidth="1"/>
     <col min="53" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5151,12 +5151,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>1970</v>
@@ -5312,7 +5312,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>51978</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>9402</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>7047</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -9578,36 +9578,36 @@
         <v>511</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="P32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9630,14 +9630,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="52" width="8.5" style="1" customWidth="1"/>
     <col min="53" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9645,12 +9645,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>1970</v>
@@ -9806,7 +9806,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>33936</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>7247</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -14072,36 +14072,36 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="P32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
